--- a/appending.xlsx
+++ b/appending.xlsx
@@ -412,62 +412,108 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="E1:F5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.7109375" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>lyca</t>
-        </is>
-      </c>
-      <c r="F1" t="n">
-        <v>225000</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Operateurs</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>CA-Deal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Evaluation</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4500000</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sima</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No deal</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>libon</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>420000</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gap</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No deal</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">reptel </t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400000</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>wind</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No deal</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>lebara</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1925000</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>wind</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No deal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ofr</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>17280000</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Situation de perte : --4280000</t>
+        </is>
       </c>
     </row>
   </sheetData>
